--- a/medicine/Mort/Liste_des_cimetières_militaires_de_la_bataille_de_Normandie/Liste_des_cimetières_militaires_de_la_bataille_de_Normandie.xlsx
+++ b/medicine/Mort/Liste_des_cimetières_militaires_de_la_bataille_de_Normandie/Liste_des_cimetières_militaires_de_la_bataille_de_Normandie.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Liste_des_cimeti%C3%A8res_militaires_de_la_bataille_de_Normandie</t>
+          <t>Liste_des_cimetières_militaires_de_la_bataille_de_Normandie</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cet article liste l'ensemble des cimetières militaires de la bataille de Normandie. La région compte 28 cimetières militaires où reposent 117 500 soldats morts majoritairement entre juin et août 1944[1]. Cimetières, plages du débarquement, musées, sites naturels, vestiges… sont autant de lieux de mémoire qui accueillent cinq millions de personnes par an et sont devenus des étapes incontournables du tourisme mémoriel qui constituent un enjeu majeur pour cette région[2].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cet article liste l'ensemble des cimetières militaires de la bataille de Normandie. La région compte 28 cimetières militaires où reposent 117 500 soldats morts majoritairement entre juin et août 1944. Cimetières, plages du débarquement, musées, sites naturels, vestiges… sont autant de lieux de mémoire qui accueillent cinq millions de personnes par an et sont devenus des étapes incontournables du tourisme mémoriel qui constituent un enjeu majeur pour cette région.
 </t>
         </is>
       </c>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Liste_des_cimeti%C3%A8res_militaires_de_la_bataille_de_Normandie</t>
+          <t>Liste_des_cimetières_militaires_de_la_bataille_de_Normandie</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,6 +524,8 @@
         </is>
       </c>
       <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
